--- a/ParallelProcessing/evaluation.xlsx
+++ b/ParallelProcessing/evaluation.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kangjunho/Desktop/Oliver/EEDP/A1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kangjunho/Developer/AlgorithmStudy/ParallelProcessing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5387A-8AEB-5E40-830E-E0CA80D667A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2BD569-334F-C743-AB55-B4563786A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{9067DA3B-E612-A443-AB41-D9261B3AB48D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22440" xr2:uid="{9067DA3B-E612-A443-AB41-D9261B3AB48D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$O$48</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$O$49:$O$57</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$P$48</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$P$49:$P$57</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$O$48</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$O$49:$O$57</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$P$48</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$P$49:$P$57</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
   <si>
     <t>func1</t>
   </si>
@@ -199,6 +189,9 @@
   </si>
   <si>
     <t>integral value</t>
+  </si>
+  <si>
+    <t>Copyright (c) Junho Kang</t>
   </si>
 </sst>
 </file>
@@ -4944,10 +4937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F38703-3565-7B41-A9EB-A5F853AA9BCC}">
-  <dimension ref="B4:AA62"/>
+  <dimension ref="B2:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4956,6 +4949,11 @@
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
@@ -5523,7 +5521,7 @@
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49">
-        <f>C34</f>
+        <f t="shared" ref="C49:C57" si="0">C34</f>
         <v>0</v>
       </c>
       <c r="D49">
@@ -5531,7 +5529,7 @@
         <v>16.557634</v>
       </c>
       <c r="O49">
-        <f>O34</f>
+        <f t="shared" ref="O49:O57" si="1">O34</f>
         <v>0</v>
       </c>
       <c r="P49">
@@ -5541,7 +5539,7 @@
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50">
-        <f>C35</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D50">
@@ -5549,7 +5547,7 @@
         <v>13.843994</v>
       </c>
       <c r="O50">
-        <f>O35</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P50">
@@ -5559,7 +5557,7 @@
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51">
-        <f>C36</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D51">
@@ -5567,7 +5565,7 @@
         <v>14.145030999999999</v>
       </c>
       <c r="O51">
-        <f>O36</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P51">
@@ -5577,7 +5575,7 @@
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52">
-        <f>C37</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D52">
@@ -5585,7 +5583,7 @@
         <v>14.759053</v>
       </c>
       <c r="O52">
-        <f>O37</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P52">
@@ -5595,7 +5593,7 @@
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53">
-        <f>C38</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D53">
@@ -5603,7 +5601,7 @@
         <v>11.559896999999999</v>
       </c>
       <c r="O53">
-        <f>O38</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P53">
@@ -5613,7 +5611,7 @@
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54">
-        <f>C39</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D54">
@@ -5621,7 +5619,7 @@
         <v>9.9225130000000004</v>
       </c>
       <c r="O54">
-        <f>O39</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P54">
@@ -5631,7 +5629,7 @@
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55">
-        <f>C40</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D55">
@@ -5639,7 +5637,7 @@
         <v>9.216348</v>
       </c>
       <c r="O55">
-        <f>O40</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="P55">
@@ -5649,7 +5647,7 @@
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56">
-        <f>C41</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D56">
@@ -5657,7 +5655,7 @@
         <v>9.7216679999999993</v>
       </c>
       <c r="O56">
-        <f>O41</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="P56">
@@ -5667,7 +5665,7 @@
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57">
-        <f>C42</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D57">
@@ -5675,7 +5673,7 @@
         <v>10.033775</v>
       </c>
       <c r="O57">
-        <f>O42</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="P57">
